--- a/analysis/heat/dataCollect/heatSpreaderTest/PCR_Results.xlsx
+++ b/analysis/heat/dataCollect/heatSpreaderTest/PCR_Results.xlsx
@@ -32022,12 +32022,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$2:$H$2</f>
+              <f>'time to temp'!$B$2:$F$2</f>
             </numRef>
           </val>
         </ser>
@@ -32054,12 +32054,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$3:$H$3</f>
+              <f>'time to temp'!$B$3:$F$3</f>
             </numRef>
           </val>
         </ser>
@@ -32086,12 +32086,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$4:$H$4</f>
+              <f>'time to temp'!$B$4:$F$4</f>
             </numRef>
           </val>
         </ser>
@@ -32118,12 +32118,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$5:$H$5</f>
+              <f>'time to temp'!$B$5:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -32150,12 +32150,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$6:$H$6</f>
+              <f>'time to temp'!$B$6:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -32182,12 +32182,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$7:$H$7</f>
+              <f>'time to temp'!$B$7:$F$7</f>
             </numRef>
           </val>
         </ser>
@@ -32214,12 +32214,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$8:$H$8</f>
+              <f>'time to temp'!$B$8:$F$8</f>
             </numRef>
           </val>
         </ser>
@@ -32246,12 +32246,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$9:$H$9</f>
+              <f>'time to temp'!$B$9:$F$9</f>
             </numRef>
           </val>
         </ser>
@@ -32278,12 +32278,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$10:$H$10</f>
+              <f>'time to temp'!$B$10:$F$10</f>
             </numRef>
           </val>
         </ser>
@@ -32310,12 +32310,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$11:$H$11</f>
+              <f>'time to temp'!$B$11:$F$11</f>
             </numRef>
           </val>
         </ser>
@@ -32342,12 +32342,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$12:$H$12</f>
+              <f>'time to temp'!$B$12:$F$12</f>
             </numRef>
           </val>
         </ser>
@@ -32374,12 +32374,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$13:$H$13</f>
+              <f>'time to temp'!$B$13:$F$13</f>
             </numRef>
           </val>
         </ser>
@@ -32406,12 +32406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$14:$H$14</f>
+              <f>'time to temp'!$B$14:$F$14</f>
             </numRef>
           </val>
         </ser>
@@ -32438,12 +32438,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$15:$H$15</f>
+              <f>'time to temp'!$B$15:$F$15</f>
             </numRef>
           </val>
         </ser>
@@ -32470,12 +32470,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$16:$H$16</f>
+              <f>'time to temp'!$B$16:$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -32502,12 +32502,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$17:$H$17</f>
+              <f>'time to temp'!$B$17:$F$17</f>
             </numRef>
           </val>
         </ser>
@@ -32534,12 +32534,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'time to temp'!$B$1:$H$1</f>
+              <f>'time to temp'!$B$1:$F$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'time to temp'!$B$18:$H$18</f>
+              <f>'time to temp'!$B$18:$F$18</f>
             </numRef>
           </val>
         </ser>
@@ -67840,7 +67840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67855,27 +67855,21 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F1" t="n">
-        <v>80</v>
-      </c>
-      <c r="G1" t="n">
         <v>90</v>
       </c>
-      <c r="H1" t="n">
-        <v>100</v>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>p/f</t>
         </is>
@@ -67888,27 +67882,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7509999999999764</v>
+        <v>1.352000000000089</v>
       </c>
       <c r="C2" t="n">
-        <v>1.352000000000089</v>
+        <v>2.108999999999924</v>
       </c>
       <c r="D2" t="n">
-        <v>2.108999999999924</v>
+        <v>3.15300000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>3.15300000000002</v>
+        <v>4.656999999999925</v>
       </c>
       <c r="F2" t="n">
-        <v>4.656999999999925</v>
-      </c>
-      <c r="G2" t="n">
         <v>7.210000000000036</v>
       </c>
-      <c r="H2" t="n">
-        <v>16.83699999999999</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -67921,29 +67909,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.053000000000111</v>
+        <v>1.654000000000224</v>
       </c>
       <c r="C3" t="n">
-        <v>1.654000000000224</v>
+        <v>2.55600000000004</v>
       </c>
       <c r="D3" t="n">
-        <v>2.55600000000004</v>
+        <v>3.458000000000084</v>
       </c>
       <c r="E3" t="n">
-        <v>3.458000000000084</v>
+        <v>4.815000000000055</v>
       </c>
       <c r="F3" t="n">
-        <v>4.815000000000055</v>
-      </c>
-      <c r="G3" t="n">
         <v>6.916000000000167</v>
       </c>
-      <c r="H3" t="n">
-        <v>13.52400000000011</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -67954,27 +67936,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.352000000000089</v>
+        <v>2.255000000000109</v>
       </c>
       <c r="C4" t="n">
-        <v>2.255000000000109</v>
+        <v>3.607999999999947</v>
       </c>
       <c r="D4" t="n">
-        <v>3.607999999999947</v>
+        <v>4.960000000000036</v>
       </c>
       <c r="E4" t="n">
-        <v>4.960000000000036</v>
+        <v>7.212999999999965</v>
       </c>
       <c r="F4" t="n">
-        <v>7.212999999999965</v>
-      </c>
-      <c r="G4" t="n">
         <v>11.12100000000009</v>
       </c>
-      <c r="H4" t="n">
-        <v>25.38499999999999</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -67987,27 +67963,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9009999999998399</v>
+        <v>1.346999999999753</v>
       </c>
       <c r="C5" t="n">
-        <v>1.346999999999753</v>
+        <v>1.947000000000116</v>
       </c>
       <c r="D5" t="n">
-        <v>1.947000000000116</v>
+        <v>2.547000000000025</v>
       </c>
       <c r="E5" t="n">
-        <v>2.547000000000025</v>
+        <v>3.449000000000069</v>
       </c>
       <c r="F5" t="n">
-        <v>3.449000000000069</v>
-      </c>
-      <c r="G5" t="n">
         <v>4.949999999999818</v>
       </c>
-      <c r="H5" t="n">
-        <v>11.85800000000017</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68020,27 +67990,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.351999999999862</v>
+        <v>2.402999999999793</v>
       </c>
       <c r="C6" t="n">
-        <v>2.402999999999793</v>
+        <v>3.757000000000062</v>
       </c>
       <c r="D6" t="n">
-        <v>3.757000000000062</v>
+        <v>5.405999999999949</v>
       </c>
       <c r="E6" t="n">
-        <v>5.405999999999949</v>
+        <v>7.809999999999945</v>
       </c>
       <c r="F6" t="n">
-        <v>7.809999999999945</v>
-      </c>
-      <c r="G6" t="n">
         <v>12.01599999999962</v>
       </c>
-      <c r="H6" t="n">
-        <v>26.43599999999969</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -68053,27 +68017,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7530000000000001</v>
+        <v>1.35499999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>1.35499999999999</v>
+        <v>2.105999999999995</v>
       </c>
       <c r="D7" t="n">
-        <v>2.105999999999995</v>
+        <v>3.006</v>
       </c>
       <c r="E7" t="n">
-        <v>3.006</v>
+        <v>4.213999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>4.213999999999999</v>
-      </c>
-      <c r="G7" t="n">
         <v>6.162999999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>13.389</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68086,27 +68044,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7509999999999764</v>
+        <v>1.350999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>1.350999999999999</v>
+        <v>1.800999999999988</v>
       </c>
       <c r="D8" t="n">
-        <v>1.800999999999988</v>
+        <v>2.550999999999988</v>
       </c>
       <c r="E8" t="n">
-        <v>2.550999999999988</v>
+        <v>3.451999999999998</v>
       </c>
       <c r="F8" t="n">
-        <v>3.451999999999998</v>
-      </c>
-      <c r="G8" t="n">
         <v>5.103999999999985</v>
       </c>
-      <c r="H8" t="n">
-        <v>10.06299999999999</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68119,27 +68071,21 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.206999999999994</v>
+        <v>2.108999999999924</v>
       </c>
       <c r="C9" t="n">
-        <v>2.108999999999924</v>
+        <v>3.303999999999974</v>
       </c>
       <c r="D9" t="n">
-        <v>3.303999999999974</v>
+        <v>4.809999999999945</v>
       </c>
       <c r="E9" t="n">
-        <v>4.809999999999945</v>
+        <v>6.906999999999925</v>
       </c>
       <c r="F9" t="n">
-        <v>6.906999999999925</v>
-      </c>
-      <c r="G9" t="n">
         <v>10.80899999999997</v>
       </c>
-      <c r="H9" t="n">
-        <v>24.47699999999998</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -68152,27 +68098,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6009999999999991</v>
+        <v>1.051000000000045</v>
       </c>
       <c r="C10" t="n">
-        <v>1.051000000000045</v>
+        <v>1.652000000000044</v>
       </c>
       <c r="D10" t="n">
-        <v>1.652000000000044</v>
+        <v>2.402000000000044</v>
       </c>
       <c r="E10" t="n">
-        <v>2.402000000000044</v>
+        <v>3.305000000000064</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305000000000064</v>
-      </c>
-      <c r="G10" t="n">
         <v>4.811000000000035</v>
       </c>
-      <c r="H10" t="n">
-        <v>10.221</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68185,27 +68125,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5989999999999327</v>
+        <v>1.051999999999907</v>
       </c>
       <c r="C11" t="n">
-        <v>1.051999999999907</v>
+        <v>1.500999999999976</v>
       </c>
       <c r="D11" t="n">
-        <v>1.500999999999976</v>
+        <v>2.106999999999971</v>
       </c>
       <c r="E11" t="n">
-        <v>2.106999999999971</v>
+        <v>2.854000000000042</v>
       </c>
       <c r="F11" t="n">
-        <v>2.854000000000042</v>
-      </c>
-      <c r="G11" t="n">
         <v>4.055000000000064</v>
       </c>
-      <c r="H11" t="n">
-        <v>7.3599999999999</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68218,27 +68152,21 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7519999999999527</v>
+        <v>1.502999999999702</v>
       </c>
       <c r="C12" t="n">
-        <v>1.502999999999702</v>
+        <v>2.253999999999905</v>
       </c>
       <c r="D12" t="n">
-        <v>2.253999999999905</v>
+        <v>3.155999999999949</v>
       </c>
       <c r="E12" t="n">
-        <v>3.155999999999949</v>
+        <v>4.506999999999607</v>
       </c>
       <c r="F12" t="n">
-        <v>4.506999999999607</v>
-      </c>
-      <c r="G12" t="n">
         <v>6.616999999999734</v>
       </c>
-      <c r="H12" t="n">
-        <v>13.22199999999975</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68251,27 +68179,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7510000000002037</v>
+        <v>1.358999999999924</v>
       </c>
       <c r="C13" t="n">
-        <v>1.358999999999924</v>
+        <v>1.952999999999975</v>
       </c>
       <c r="D13" t="n">
-        <v>1.952999999999975</v>
+        <v>2.854000000000269</v>
       </c>
       <c r="E13" t="n">
-        <v>2.854000000000269</v>
+        <v>3.9050000000002</v>
       </c>
       <c r="F13" t="n">
-        <v>3.9050000000002</v>
-      </c>
-      <c r="G13" t="n">
         <v>5.865000000000236</v>
       </c>
-      <c r="H13" t="n">
-        <v>13.375</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68284,27 +68206,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.25</v>
+        <v>4.202999999999975</v>
       </c>
       <c r="C14" t="n">
-        <v>4.202999999999975</v>
+        <v>6.608999999999924</v>
       </c>
       <c r="D14" t="n">
-        <v>6.608999999999924</v>
+        <v>9.61200000000008</v>
       </c>
       <c r="E14" t="n">
-        <v>9.61200000000008</v>
+        <v>14.42500000000018</v>
       </c>
       <c r="F14" t="n">
-        <v>14.42500000000018</v>
-      </c>
-      <c r="G14" t="n">
         <v>22.98700000000008</v>
       </c>
-      <c r="H14" t="n">
-        <v>55.46099999999979</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -68317,27 +68233,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6009999999999991</v>
+        <v>1.051999999999992</v>
       </c>
       <c r="C15" t="n">
-        <v>1.051999999999992</v>
+        <v>1.657999999999987</v>
       </c>
       <c r="D15" t="n">
-        <v>1.657999999999987</v>
+        <v>2.264999999999986</v>
       </c>
       <c r="E15" t="n">
-        <v>2.264999999999986</v>
+        <v>3.163999999999987</v>
       </c>
       <c r="F15" t="n">
-        <v>3.163999999999987</v>
-      </c>
-      <c r="G15" t="n">
         <v>4.662999999999982</v>
       </c>
-      <c r="H15" t="n">
-        <v>10.83099999999999</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68350,29 +68260,23 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.90199999999993</v>
+        <v>1.65300000000002</v>
       </c>
       <c r="C16" t="n">
-        <v>1.65300000000002</v>
+        <v>2.55499999999995</v>
       </c>
       <c r="D16" t="n">
-        <v>2.55499999999995</v>
+        <v>3.755999999999972</v>
       </c>
       <c r="E16" t="n">
-        <v>3.755999999999972</v>
+        <v>5.257999999999925</v>
       </c>
       <c r="F16" t="n">
-        <v>5.257999999999925</v>
-      </c>
-      <c r="G16" t="n">
         <v>7.961000000000013</v>
       </c>
-      <c r="H16" t="n">
-        <v>16.82399999999996</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -68383,27 +68287,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7520000000001801</v>
+        <v>1.354000000000042</v>
       </c>
       <c r="C17" t="n">
-        <v>1.354000000000042</v>
+        <v>2.109000000000151</v>
       </c>
       <c r="D17" t="n">
-        <v>2.109000000000151</v>
+        <v>2.860000000000127</v>
       </c>
       <c r="E17" t="n">
-        <v>2.860000000000127</v>
+        <v>4.064000000000078</v>
       </c>
       <c r="F17" t="n">
-        <v>4.064000000000078</v>
-      </c>
-      <c r="G17" t="n">
         <v>5.871000000000095</v>
       </c>
-      <c r="H17" t="n">
-        <v>12.03100000000018</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -68416,27 +68314,21 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.75</v>
+        <v>1.200000000000045</v>
       </c>
       <c r="C18" t="n">
-        <v>1.200000000000045</v>
+        <v>1.953999999999951</v>
       </c>
       <c r="D18" t="n">
-        <v>1.953999999999951</v>
+        <v>2.701000000000022</v>
       </c>
       <c r="E18" t="n">
-        <v>2.701000000000022</v>
+        <v>3.754000000000133</v>
       </c>
       <c r="F18" t="n">
-        <v>3.754000000000133</v>
-      </c>
-      <c r="G18" t="n">
         <v>5.712999999999965</v>
       </c>
-      <c r="H18" t="n">
-        <v>13.221</v>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>pass</t>
         </is>

--- a/analysis/heat/dataCollect/heatSpreaderTest/PCR_Results.xlsx
+++ b/analysis/heat/dataCollect/heatSpreaderTest/PCR_Results.xlsx
@@ -32552,6 +32552,21 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperature (c)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -32564,6 +32579,21 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time to Reach Temperature (sec)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
